--- a/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
+++ b/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SV_calls" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CNV_and_Aneuploidy_calls" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CNV_metrics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SV_calls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CNV_and_Aneuploidy_calls" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CNV_metrics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,10 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,1778 +501,1778 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2" t="n">
         <v>89079223</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>89103658</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
         <v>13974</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>42555772</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>42578556</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>8635</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2" t="n">
         <v>36573020</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>36622460</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>38882</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2" t="n">
         <v>36591383</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>36622460</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
         <v>22069</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2" t="n">
         <v>121460723</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>121518226</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="2" t="n">
         <v>32372</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2" t="n">
         <v>44271527</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>44446081</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2" t="n">
         <v>161785</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2" t="n">
         <v>77287230</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>77301671</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="2" t="n">
         <v>11274</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2" t="n">
         <v>113403495</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>113432558</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="2" t="n">
         <v>23973</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2" t="n">
         <v>18842913</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>18916892</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2" t="n">
         <v>60479</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2" t="n">
         <v>90092771</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>90155985</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2" t="n">
         <v>39202</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>10428987</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>10477850</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="2" t="n">
         <v>40556</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2" t="n">
         <v>22096727</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>22132829</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2" t="n">
         <v>32048</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2" t="n">
         <v>22403246</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>22622723</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2" t="n">
         <v>219477</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2" t="n">
         <v>5233868</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>5263812</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="2" t="n">
         <v>14059</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2" t="n">
         <v>7500779</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>7535545</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2" t="n">
         <v>20105</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2" t="n">
         <v>66471329</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>66498525</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="2" t="n">
         <v>25089</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2" t="n">
         <v>70677685</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>70693647</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="2" t="n">
         <v>11000</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2" t="n">
         <v>70677685</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2" t="n">
         <v>70693917</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="2" t="n">
         <v>11130</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2" t="n">
         <v>158185853</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="2" t="n">
         <v>159271805</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="2" t="n">
         <v>1067361</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2" t="n">
         <v>62135251</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="2" t="n">
         <v>62200365</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="2" t="n">
         <v>46763</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2" t="n">
         <v>21814479</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="2" t="n">
         <v>21837075</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="2" t="n">
         <v>8544</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2" t="n">
         <v>50273770</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="2" t="n">
         <v>50407985</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="2" t="n">
         <v>113158</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>deletion</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2" t="n">
         <v>2349274</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="2" t="n">
         <v>2441978</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="2" t="n">
         <v>77027</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>duplication_split</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2" t="n">
         <v>72436529</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="2" t="n">
         <v>72668687</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="2" t="n">
         <v>232158</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>duplication_split</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2" t="n">
         <v>73067607</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>77013957</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="2" t="n">
         <v>3946350</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>insertion</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2" t="n">
         <v>93690639</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="2" t="n">
         <v>93707149</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="2" t="n">
         <v>5722</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>insertion</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2" t="n">
         <v>54210155</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="2" t="n">
         <v>54219148</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="2" t="n">
         <v>6089</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>insertion</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2" t="n">
         <v>148336764</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="2" t="n">
         <v>148348351</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="2" t="n">
         <v>23955</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>insertion</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2" t="n">
         <v>76832500</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="2" t="n">
         <v>76851752</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="2" t="n">
         <v>12613</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>translocation_interchr</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2" t="n">
         <v>118479068</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="2" t="n">
         <v>6268868</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>translocation_interchr</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2" t="n">
         <v>32720656</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="2" t="n">
         <v>43652112</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>translocation_interchr</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2" t="n">
         <v>101137685</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="2" t="n">
         <v>33578682</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>translocation_interchr</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2" t="n">
         <v>130764655</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="2" t="n">
         <v>23236212</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="J34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>translocation_intrachr</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2" t="n">
         <v>74489342</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="2" t="n">
         <v>126887290</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -2357,714 +2360,714 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Aneuploidy</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
         <v>180507680</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="2" t="n">
         <v>2.695</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Aneuploidy</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>128439889</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>2.376</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Aneuploidy</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>37520123</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2" t="n">
         <v>2.347</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2" t="n">
         <v>18514</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>39512270</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
         <v>39493756</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2" t="n">
         <v>2.406</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2" t="n">
         <v>42178604</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>46404297</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="2" t="n">
         <v>4225693</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2" t="n">
         <v>2.389</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2" t="n">
         <v>47686678</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>98844380</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2" t="n">
         <v>51157702</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2" t="n">
         <v>2.383</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2" t="n">
         <v>101275106</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>132148913</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="2" t="n">
         <v>30873807</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2" t="n">
         <v>2.387</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2" t="n">
         <v>32821561</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>61861320</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="2" t="n">
         <v>29039759</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2" t="n">
         <v>12406577</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>43121077</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2" t="n">
         <v>30714500</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2" t="n">
         <v>2.336</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2" t="n">
         <v>19314</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>46400789</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2" t="n">
         <v>46381475</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2" t="n">
         <v>2.649</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>49709239</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>70107744</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="2" t="n">
         <v>20398505</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2" t="n">
         <v>2.669</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>gain</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2" t="n">
         <v>71001016</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>181472714</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2" t="n">
         <v>110471698</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="2" t="n">
         <v>2.693</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>HCM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Sample8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>HG002</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>CNV</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2" t="n">
         <v>74488138</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>126892338</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2" t="n">
         <v>52404200</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="2" t="n">
         <v>1.359</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -3119,21 +3122,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Percent above expected (2 Mbp window)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Percent difference (2 Mbp window)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>4.728</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3142,21 +3145,21 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Percent above expected (6 Mbp window)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>Percent difference (2 Mbp window)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>11.18</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>12.245</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3168,18 +3171,18 @@
           <t>Correlation with label density</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.029</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3191,18 +3194,18 @@
           <t>Wave template correlation</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
+++ b/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
@@ -3122,7 +3122,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Percent difference (2 Mbp window)</t>
+          <t>Percent difference between observed and expected coefficient of variation (2 Mbp window)</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -3145,7 +3145,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Percent difference (2 Mbp window)</t>
+          <t>Percent difference between observed and expected coefficient of variation (6 Mbp window)</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">

--- a/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
+++ b/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Case Sample Name</t>
+          <t>Treated Sample Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,32 +461,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Case Start Chromosome</t>
+          <t>Start Chromosome</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Case End Chromosome</t>
+          <t>End Chromosome</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Case Event Start</t>
+          <t>Event Start</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case Event End</t>
+          <t>Event End</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Case Event Size</t>
+          <t>Event Size</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Case Molecule Count</t>
+          <t>Treated Molecule Count</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -541,7 +541,7 @@
         <v>13974</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>51</v>
@@ -593,7 +593,7 @@
         <v>8635</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>19</v>
@@ -645,7 +645,7 @@
         <v>38882</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>22069</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>32372</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>161785</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>11274</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>40</v>
@@ -896,16 +896,16 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>113403495</v>
+        <v>18842913</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>113432558</v>
+        <v>18916892</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>23973</v>
+        <v>60479</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0</v>
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>18842913</v>
+        <v>113403495</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>18916892</v>
+        <v>113432558</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>60479</v>
+        <v>23973</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>39202</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>40556</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>32048</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>219477</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>14059</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>49</v>
@@ -1269,7 +1269,7 @@
         <v>20105</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>66471329</v>
+        <v>70677685</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>66498525</v>
+        <v>70693917</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>25089</v>
+        <v>11130</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0</v>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>70677685</v>
+        <v>66471329</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>70693647</v>
+        <v>66498525</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>11000</v>
+        <v>25089</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0</v>
@@ -1407,25 +1407,25 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>70677685</v>
+        <v>62135251</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>70693917</v>
+        <v>62200365</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>11130</v>
+        <v>46763</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>1067361</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0</v>
@@ -1511,25 +1511,25 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>62135251</v>
+        <v>21814479</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>62200365</v>
+        <v>21837075</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>46763</v>
+        <v>8544</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0</v>
@@ -1563,25 +1563,25 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>21814479</v>
+        <v>50273770</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>21837075</v>
+        <v>50407985</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>8544</v>
+        <v>113158</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0</v>
@@ -1615,25 +1615,25 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>50273770</v>
+        <v>2349274</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>50407985</v>
+        <v>2441978</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>113158</v>
+        <v>77027</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0</v>
@@ -1662,30 +1662,30 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>deletion</t>
+          <t>duplication_split</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2349274</v>
+        <v>73067607</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2441978</v>
+        <v>77013957</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>77027</v>
+        <v>3946350</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>232158</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>73067607</v>
+        <v>72436529</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>77013957</v>
+        <v>72668687</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3946350</v>
+        <v>232158</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>5722</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>9</v>
@@ -1893,7 +1893,7 @@
         <v>6089</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>17</v>
@@ -1945,7 +1945,7 @@
         <v>23955</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>14</v>
@@ -1997,7 +1997,7 @@
         <v>12613</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>118479068</v>
+        <v>118493942</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>6268868</v>
+        <v>6276713</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>101137685</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>33578682</v>
+        <v>33583687</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Case Sample Name</t>
+          <t>Treated Sample Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2325,27 +2325,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Case Chromosome</t>
+          <t>Chromosome</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Case Event Start</t>
+          <t>Event Start</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case Event End</t>
+          <t>Event End</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Case Event Size</t>
+          <t>Event Size</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Case Fractional Copy Number</t>
+          <t>Treated Fractional Copy Number</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Case QC Passed</t>
+          <t>Treated QC Passed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
+++ b/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
@@ -2400,8 +2400,10 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>180507680</v>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="J2" s="2" t="n">
         <v>2.695</v>
@@ -2458,8 +2460,10 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>128439889</v>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="J3" s="2" t="n">
         <v>2.376</v>
@@ -2516,8 +2520,10 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>37520123</v>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="J4" s="2" t="n">
         <v>2.347</v>

--- a/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
+++ b/examples/Sample8_vs_HG002/Sample8_vs_HG002.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>duplication_split</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>72436529</v>
+        <v>93690639</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>72668687</v>
+        <v>93707149</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>232158</v>
+        <v>5722</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -1823,28 +1823,28 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>93690639</v>
+        <v>54210155</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>93707149</v>
+        <v>54219148</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>5722</v>
+        <v>6089</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
@@ -1875,28 +1875,28 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>54210155</v>
+        <v>148336764</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>54219148</v>
+        <v>148348351</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>6089</v>
+        <v>23955</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
@@ -1927,32 +1927,32 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>148336764</v>
+        <v>76832500</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>148348351</v>
+        <v>76851752</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>23955</v>
+        <v>12613</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -1974,30 +1974,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>translocation_interchr</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>76832500</v>
+        <v>118493942</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>76851752</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>12613</v>
+        <v>6276713</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0</v>
@@ -2031,19 +2033,19 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>118493942</v>
+        <v>32720656</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>6276713</v>
+        <v>43652112</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -2051,7 +2053,7 @@
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0</v>
@@ -2085,7 +2087,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2094,10 +2096,10 @@
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>32720656</v>
+        <v>101137685</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>43652112</v>
+        <v>33583687</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
@@ -2105,7 +2107,7 @@
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0</v>
@@ -2139,19 +2141,19 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>101137685</v>
+        <v>130764655</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>33583687</v>
+        <v>23236212</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
@@ -2159,10 +2161,10 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
@@ -2188,24 +2190,24 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>translocation_interchr</t>
+          <t>translocation_intrachr</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>130764655</v>
+        <v>74489342</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>23236212</v>
+        <v>126887290</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -2213,66 +2215,12 @@
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Sample8</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>HG002</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>translocation_intrachr</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>74489342</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>126887290</v>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
